--- a/torcms_taginfo/database/meta/info_tags.xlsx
+++ b/torcms_taginfo/database/meta/info_tags.xlsx
@@ -1472,10 +1472,10 @@
     <t xml:space="preserve">其他数据</t>
   </si>
   <si>
-    <t xml:space="preserve">s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ts1</t>
+    <t xml:space="preserve">t</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tt1</t>
   </si>
   <si>
     <t xml:space="preserve">end_hunger</t>
@@ -1712,7 +1712,7 @@
     <t xml:space="preserve">其他（人文）</t>
   </si>
   <si>
-    <t xml:space="preserve">ts2</t>
+    <t xml:space="preserve">tt2</t>
   </si>
   <si>
     <t xml:space="preserve">water_and_sanitation</t>
@@ -1949,7 +1949,7 @@
     <t xml:space="preserve">其他（陆地表层“水”；冰冻圈）</t>
   </si>
   <si>
-    <t xml:space="preserve">ts3</t>
+    <t xml:space="preserve">tt3</t>
   </si>
   <si>
     <t xml:space="preserve">sustainable_cities_human</t>
@@ -2229,7 +2229,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">ts4</t>
+    <t xml:space="preserve">tt4</t>
   </si>
   <si>
     <t xml:space="preserve">climate_action</t>
@@ -2397,7 +2397,7 @@
     <t xml:space="preserve">其他（大气）</t>
   </si>
   <si>
-    <t xml:space="preserve">ts5</t>
+    <t xml:space="preserve">tt5</t>
   </si>
   <si>
     <t xml:space="preserve">marine_resource</t>
@@ -2698,7 +2698,7 @@
     <t xml:space="preserve">其他（海洋）</t>
   </si>
   <si>
-    <t xml:space="preserve">ts6</t>
+    <t xml:space="preserve">tt6</t>
   </si>
   <si>
     <t xml:space="preserve">terrestrial_ecosystem</t>
@@ -3039,7 +3039,7 @@
     <t xml:space="preserve">其他（陆地表层、生物）</t>
   </si>
   <si>
-    <t xml:space="preserve">ts9</t>
+    <t xml:space="preserve">tt9</t>
   </si>
   <si>
     <t xml:space="preserve">s_other</t>
@@ -3582,16 +3582,16 @@
       <selection pane="topLeft" activeCell="G24" activeCellId="0" sqref="G24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.62890625" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.63671875" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="5.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="6.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="25.25"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="19.62"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1012" min="5" style="1" width="11.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1014" min="1013" style="1" width="8.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1014" min="1013" style="1" width="8.76"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1016" min="1015" style="1" width="11.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1020" min="1017" style="1" width="8.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1020" min="1017" style="1" width="8.76"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1021" min="1021" style="1" width="11.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1022" style="1" width="9.13"/>
   </cols>
@@ -5402,7 +5402,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -5417,18 +5417,18 @@
   </sheetPr>
   <dimension ref="A1:F69"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B40" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D71" activeCellId="0" sqref="D71"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A43" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C69" activeCellId="0" sqref="C69"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.12890625" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="35.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="34.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="34.24"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="28.38"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="true" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" s="1" customFormat="true" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>346</v>
       </c>
@@ -6188,7 +6188,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
